--- a/biology/Zoologie/Cigaritis/Cigaritis.xlsx
+++ b/biology/Zoologie/Cigaritis/Cigaritis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cigaritis est un genre de lépidoptères (papillons) africains et asiatiques de la famille des Lycaenidae et de la sous-famille des Aphnaeinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Cigaritis a été décrit par l'entomologiste français Hugues-Fleury Donzel (en) en 1847. L'espèce type est Cigaritis zohra Donzel, 1847[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Cigaritis a été décrit par l'entomologiste français Hugues-Fleury Donzel (en) en 1847. L'espèce type est Cigaritis zohra Donzel, 1847.
 Il a pour synonymes : 
 Zerythis Lucas, 1849
 Spindasis Wallengren, 1857
@@ -545,9 +559,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quand elles ont un nom vernaculaire, les espèces du genre Cigaritis sont appelées Faux-cuivrés[2] en français, et Leopard Butterflies, Silverlines ou Barred Blues en anglais[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand elles ont un nom vernaculaire, les espèces du genre Cigaritis sont appelées Faux-cuivrés en français, et Leopard Butterflies, Silverlines ou Barred Blues en anglais.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FUNET Tree of Life  (18 janvier 2020)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FUNET Tree of Life  (18 janvier 2020) :
 Cigaritis zohra Donzel, 1847 — le Faux-cuivré berbère — au Maroc et en Algérie.
 Cigaritis siphax (Lucas, 1849) — le Faux-cuivré numide — en Algérie et en Tunisie.
 Cigaritis allardi Oberthür, 1909 — le Faux-cuivré mauresque — au Maroc et en Algérie.
@@ -614,7 +632,7 @@
 Cigaritis pinheyi (Heath, 1983)
 Cigaritis scotti (Gabriel, 1954) — dans le Sud du Yémen.
 Cigaritis shaba (Bouyer, 1991)
-Cigaritis somalina (Butler, [1886]) — dans le Nord du Kenya, en Éthiopie, en Somalie et dans le Sud de l'Arabie.
+Cigaritis somalina (Butler, ) — dans le Nord du Kenya, en Éthiopie, en Somalie et dans le Sud de l'Arabie.
 Cigaritis tanganyikae (Kielland, 1990)
 Cigaritis tavetensis (Lathy, 1906) — dans le Nord de la Tanzanie, dans l'Est de l'Ouganda et au Kenya.
 Cigaritis trimeni (Neave, 1910) — en Zambie, au Malawi, en Tanzanie, en Angola et au Zaïre.
@@ -624,27 +642,27 @@
 Cigaritis epargyros (Eversmann, 1854) — de l'Arabie à l'Amour.
 Cigaritis seliga (Fruhstorfer, 1912) — en Asie du Sud-Est.
 Cigaritis kutu (Corbet, 1940) — en Malaisie péninsulaire.
-Cigaritis lohita (Horsfield, [1829]) — en Asie du Sud et du Sud-Est.
-Cigaritis syama (Horsfield, [1829]) — en Chine et en Asie du Sud-Est
+Cigaritis lohita (Horsfield, ) — en Asie du Sud et du Sud-Est.
+Cigaritis syama (Horsfield, ) — en Chine et en Asie du Sud-Est
 Cigaritis mishmisensis (South, 1913) — en Inde.
 Cigaritis vulcanus (Fabricius, 1775) — en Asie du Sud et du Sud-Est.
-Cigaritis schistacea (Moore, [1881]) — en Inde, au Sri Lanka et en Birmanie.
+Cigaritis schistacea (Moore, ) — en Inde, au Sri Lanka et en Birmanie.
 Cigaritis ictis (Hewitson, 1865) — en Inde et au Sri Lanka.
 Cigaritis trifurcata (Moore, 1882) — en Inde.
 Cigaritis lunulifera (Moore, 1879) — en Inde et au Sri Lanka.
-Cigaritis nubilus (Moore, [1887]) — au Sri Lanka.
-Cigaritis maximus (Elwes, [1893]) — en Birmanie, en Thaïlande et au Laos.
+Cigaritis nubilus (Moore, ) — au Sri Lanka.
+Cigaritis maximus (Elwes, ) — en Birmanie, en Thaïlande et au Laos.
 Cigaritis lilacinus (Moore, 1884) — en Inde et en Birmanie.
 Cigaritis greeni (Heron, 1896) — au Sri Lanka.
 Cigaritis vixinga (Hewitson, 1875) — en Asie du Sud-Est.
 Cigaritis nipalicus (Moore, 1884) — dans l'Ouest de l'Inde et au Népal.
 Cigaritis zhengweille (Huang, 1998) — en Chine
-Cigaritis rukmini (de Nicéville, [1889]) — au Sikkim en Assam.
-Cigaritis rukma (de Nicéville, [1889]) — au Sikkim et au Bhoutan.
-Cigaritis elwesi Evans, [1925] — en Inde.
+Cigaritis rukmini (de Nicéville, ) — au Sikkim en Assam.
+Cigaritis rukma (de Nicéville, ) — au Sikkim et au Bhoutan.
+Cigaritis elwesi Evans,  — en Inde.
 Cigaritis learmondi (Tytler, 1940) — en Birmanie et en Thaïlande.
 Cigaritis evansii (Tytler, 1915) — en Assam et en Thaïlande.
-Cigaritis abnormis (Moore, [1884]) — dans le Sud de l'Inde.
+Cigaritis abnormis (Moore, ) — dans le Sud de l'Inde.
 Cigaritis arooni (Murayama &amp; Kimura, 1990) — dans le Nord de la Thaïlande.
 Cigaritis leechi (Swinhoe, 1912) — dans l'Ouest de la Chine.
 Cigaritis takanonis (Matsumura, 1906) — au Japon.
